--- a/数据整理/stocks/A股/深证主板/002343-慈文传媒.xlsx
+++ b/数据整理/stocks/A股/深证主板/002343-慈文传媒.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>88.17</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.46</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,25 +596,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003980</t>
+          <t>290012</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银证券瑞益灵活配置混合A</t>
+          <t>泰信行业精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.92</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -594,25 +634,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003981</t>
+          <t>003980</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中银证券瑞益灵活配置混合C</t>
+          <t>中银证券瑞益灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>88.92</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.19</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -622,25 +672,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>290012</t>
+          <t>090019</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰信行业精选灵活配置混合A</t>
+          <t>大成景恒混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -650,25 +710,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002583</t>
+          <t>003981</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰信行业精选灵活配置混合C</t>
+          <t>中银证券瑞益灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -678,25 +748,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>090019</t>
+          <t>006038</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成景恒混合A</t>
+          <t>大成景恒混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>90.27</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.69</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -706,25 +786,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006038</t>
+          <t>002583</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大成景恒混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>90.27</t>
-        </is>
-      </c>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002343-慈文传媒.xlsx
+++ b/数据整理/stocks/A股/深证主板/002343-慈文传媒.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -794,7 +795,6 @@
           <t>泰信行业精选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>94.09</t>
@@ -810,6 +810,136 @@
       </c>
       <c r="H7" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002343-慈文传媒.xlsx
+++ b/数据整理/stocks/A股/深证主板/002343-慈文传媒.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -945,4 +946,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002343-慈文传媒.xlsx
+++ b/数据整理/stocks/A股/深证主板/002343-慈文传媒.xlsx
@@ -970,12 +970,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002343-慈文传媒.xlsx
+++ b/数据整理/stocks/A股/深证主板/002343-慈文传媒.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,95 +453,215 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005983</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根核心精选股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.17</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -818,216 +938,96 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>290012</t>
+          <t>005983</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰信行业精选灵活配置混合A</t>
+          <t>上投摩根核心精选股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>88.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0317</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002583</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.91</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002343-慈文传媒.xlsx
+++ b/数据整理/stocks/A股/深证主板/002343-慈文传媒.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -558,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -598,26 +615,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>91.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0317</t>
+          <t>0.0380</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -636,24 +653,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>91.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -662,6 +681,136 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -938,7 +1087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002343-慈文传媒.xlsx
+++ b/数据整理/stocks/A股/深证主板/002343-慈文传媒.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -615,26 +632,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>92.06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0380</t>
+          <t>0.0628</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -653,26 +670,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>92.06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0124</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -707,7 +724,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -747,26 +764,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>91.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0317</t>
+          <t>0.0380</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -785,24 +802,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>91.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -811,6 +830,136 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1087,7 +1236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
